--- a/日运语句数据库2.0.xlsx
+++ b/日运语句数据库2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\mypy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12660" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="常见格局（生克）" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,15 @@
     <sheet name="墓" sheetId="3" r:id="rId6"/>
     <sheet name="十神关系" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+  <si>
+    <t>常见格局（生克）</t>
+  </si>
   <si>
     <t>食伤驾杀</t>
   </si>
@@ -57,15 +55,156 @@
     <t>印生比劫</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>冲</t>
   </si>
   <si>
+    <t>比肩-正财</t>
+  </si>
+  <si>
+    <t>劫财-偏财</t>
+  </si>
+  <si>
+    <t>食神-正官</t>
+  </si>
+  <si>
+    <t>伤官-七杀</t>
+  </si>
+  <si>
+    <t>正财-正印</t>
+  </si>
+  <si>
+    <t>偏财-偏印</t>
+  </si>
+  <si>
+    <t>正官-比肩</t>
+  </si>
+  <si>
+    <t>七杀-劫财</t>
+  </si>
+  <si>
+    <t>正印-食神</t>
+  </si>
+  <si>
+    <t>偏印-伤官</t>
+  </si>
+  <si>
+    <t>比肩-比肩</t>
+  </si>
+  <si>
+    <t>劫财-劫财</t>
+  </si>
+  <si>
+    <t>食神-食神</t>
+  </si>
+  <si>
+    <t>伤官-伤官</t>
+  </si>
+  <si>
+    <t>正财-正财</t>
+  </si>
+  <si>
+    <t>偏财-偏财</t>
+  </si>
+  <si>
+    <t>正官-正官</t>
+  </si>
+  <si>
+    <t>七杀-七杀</t>
+  </si>
+  <si>
+    <t>正印-正印</t>
+  </si>
+  <si>
+    <t>偏印-偏印</t>
+  </si>
+  <si>
     <t>合</t>
   </si>
   <si>
+    <t>比肩-偏财</t>
+  </si>
+  <si>
+    <t>劫财-正财</t>
+  </si>
+  <si>
+    <t>食神-七杀</t>
+  </si>
+  <si>
+    <t>伤官-正官</t>
+  </si>
+  <si>
+    <t>正财-偏印</t>
+  </si>
+  <si>
+    <t>偏财-正印</t>
+  </si>
+  <si>
+    <t>正官-劫财</t>
+  </si>
+  <si>
+    <t>七杀-比肩</t>
+  </si>
+  <si>
+    <t>正印-伤官</t>
+  </si>
+  <si>
+    <t>偏印-食神</t>
+  </si>
+  <si>
+    <t>比肩-伤官</t>
+  </si>
+  <si>
+    <t>劫财-食神</t>
+  </si>
+  <si>
+    <t>食神-偏财</t>
+  </si>
+  <si>
+    <t>伤官-正财</t>
+  </si>
+  <si>
+    <t>正财-七杀</t>
+  </si>
+  <si>
+    <t>偏财-正官</t>
+  </si>
+  <si>
+    <t>正官-偏印</t>
+  </si>
+  <si>
+    <t>七杀-正印</t>
+  </si>
+  <si>
+    <t>正印-劫财</t>
+  </si>
+  <si>
+    <t>偏印-比肩</t>
+  </si>
+  <si>
     <t>害</t>
   </si>
   <si>
+    <t>比肩-七杀</t>
+  </si>
+  <si>
+    <t>劫财-正官</t>
+  </si>
+  <si>
+    <t>食神-偏印</t>
+  </si>
+  <si>
+    <t>伤官-正印</t>
+  </si>
+  <si>
+    <t>比肩-偏印</t>
+  </si>
+  <si>
+    <t>劫财-正印</t>
+  </si>
+  <si>
     <t>刑</t>
   </si>
   <si>
@@ -78,6 +217,90 @@
     <t>自刑</t>
   </si>
   <si>
+    <t>比劫-食伤-官杀</t>
+  </si>
+  <si>
+    <t>食伤-财-印枭</t>
+  </si>
+  <si>
+    <t>财-官杀-比劫</t>
+  </si>
+  <si>
+    <t>官杀-印枭-食伤</t>
+  </si>
+  <si>
+    <t>印枭-比劫-财</t>
+  </si>
+  <si>
+    <t>比劫-比劫-比劫</t>
+  </si>
+  <si>
+    <t>食伤-食伤-食伤</t>
+  </si>
+  <si>
+    <t>财-财-财</t>
+  </si>
+  <si>
+    <t>官杀-官杀-官杀</t>
+  </si>
+  <si>
+    <t>印枭-印枭-印枭</t>
+  </si>
+  <si>
+    <t>比劫-食伤</t>
+  </si>
+  <si>
+    <t>食伤-财</t>
+  </si>
+  <si>
+    <t>财-官杀</t>
+  </si>
+  <si>
+    <t>官杀-印枭</t>
+  </si>
+  <si>
+    <t>比劫-印枭</t>
+  </si>
+  <si>
+    <t>比劫-比劫</t>
+  </si>
+  <si>
+    <t>食伤-食伤</t>
+  </si>
+  <si>
+    <t>财-财</t>
+  </si>
+  <si>
+    <t>官杀-官杀</t>
+  </si>
+  <si>
+    <t>印枭-印枭</t>
+  </si>
+  <si>
+    <t>墓</t>
+  </si>
+  <si>
+    <t>比劫</t>
+  </si>
+  <si>
+    <t>食伤</t>
+  </si>
+  <si>
+    <t>财</t>
+  </si>
+  <si>
+    <t>官杀</t>
+  </si>
+  <si>
+    <t>印枭</t>
+  </si>
+  <si>
+    <t>枭入墓</t>
+  </si>
+  <si>
+    <t>印入墓</t>
+  </si>
+  <si>
     <t>比劫-财</t>
   </si>
   <si>
@@ -93,392 +316,29 @@
     <t>印枭-食伤</t>
   </si>
   <si>
-    <t>比劫-比劫</t>
-  </si>
-  <si>
-    <t>食伤-食伤</t>
-  </si>
-  <si>
-    <t>财-财</t>
-  </si>
-  <si>
-    <t>官杀-官杀</t>
-  </si>
-  <si>
-    <t>印枭-印枭</t>
-  </si>
-  <si>
     <t>比劫-官杀</t>
   </si>
   <si>
     <t>食伤-印枭</t>
   </si>
   <si>
-    <t>比劫-印枭</t>
-  </si>
-  <si>
-    <t>比劫-食伤</t>
-  </si>
-  <si>
-    <t>食伤-财</t>
-  </si>
-  <si>
-    <t>财-官杀</t>
-  </si>
-  <si>
-    <t>官杀-印枭</t>
-  </si>
-  <si>
-    <t>比劫-食伤-官杀</t>
-  </si>
-  <si>
-    <t>食伤-财-印枭</t>
-  </si>
-  <si>
-    <t>财-官杀-比劫</t>
-  </si>
-  <si>
-    <t>官杀-印枭-食伤</t>
-  </si>
-  <si>
-    <t>印枭-比劫-财</t>
-  </si>
-  <si>
-    <t>比劫-比劫-比劫</t>
-  </si>
-  <si>
-    <t>食伤-食伤-食伤</t>
-  </si>
-  <si>
-    <t>财-财-财</t>
-  </si>
-  <si>
-    <t>官杀-官杀-官杀</t>
-  </si>
-  <si>
-    <t>印枭-印枭-印枭</t>
-  </si>
-  <si>
-    <t>比劫</t>
-  </si>
-  <si>
-    <t>食伤</t>
-  </si>
-  <si>
-    <t>财</t>
-  </si>
-  <si>
-    <t>官杀</t>
-  </si>
-  <si>
-    <t>印枭</t>
+    <t>印被合走，哈哈。</t>
   </si>
   <si>
     <t>财被合走</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>印被合走，哈哈。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正财-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正财-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正官-比肩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀-劫财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正印-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正印-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏印-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-比肩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正财-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正官-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正印-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正官-劫财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正财-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正官-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-劫财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏印-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见格局（生克）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>墓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀-比肩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏印-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤官-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正财-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏财-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正官-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>七杀-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正印-劫财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏印-比肩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-食神-正印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-伤官-偏印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-食神-正官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-伤官-七杀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-食神-正财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-伤官-偏财</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比肩-正财-食神</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫财-偏财-伤官</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>食神-正财-比肩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>比劫-食伤-印枭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,24 +361,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="黑体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -526,7 +391,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -534,7 +398,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -542,33 +405,160 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,48 +573,234 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -634,26 +810,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -662,19 +823,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,17 +844,32 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -701,24 +877,24 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,170 +902,444 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="18" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFF0B9AE"/>
+      <color rgb="00F0B9AE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1013,7 +1463,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1037,9 +1487,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1063,7 +1513,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1116,7 +1566,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1141,89 +1591,89 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="true"/>
+    <col min="2" max="3" width="14.75" customWidth="true"/>
+    <col min="4" max="4" width="11.875" customWidth="true"/>
+    <col min="5" max="5" width="18.125" customWidth="true"/>
+    <col min="6" max="6" width="11.875" customWidth="true"/>
+    <col min="7" max="8" width="13.875" customWidth="true"/>
+    <col min="9" max="9" width="12.75" customWidth="true"/>
+    <col min="10" max="10" width="14.25" customWidth="true"/>
+    <col min="11" max="11" width="16.375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="1" ht="34.5" customHeight="true" spans="1:10">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="20.25" spans="1:10">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>46</v>
@@ -1250,11 +1700,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="14"/>
       <c r="C4">
         <v>47</v>
       </c>
@@ -1280,11 +1730,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="14"/>
       <c r="C5">
         <v>48</v>
       </c>
@@ -1310,11 +1760,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="14"/>
       <c r="C6">
         <v>49</v>
       </c>
@@ -1340,11 +1790,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="14"/>
       <c r="C7">
         <v>50</v>
       </c>
@@ -1370,11 +1820,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="14"/>
       <c r="C8">
         <v>51</v>
       </c>
@@ -1400,7 +1850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>18</v>
       </c>
@@ -1429,7 +1879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>19</v>
       </c>
@@ -1458,7 +1908,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1487,7 +1937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1516,7 +1966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1545,7 +1995,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1574,7 +2024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>24</v>
       </c>
@@ -1603,7 +2053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>25</v>
       </c>
@@ -1632,7 +2082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>26</v>
       </c>
@@ -1661,7 +2111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>27</v>
       </c>
@@ -1690,7 +2140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>28</v>
       </c>
@@ -1723,125 +2173,122 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.75" customWidth="1"/>
-    <col min="19" max="20" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="true"/>
+    <col min="2" max="3" width="10.75" customWidth="true"/>
+    <col min="4" max="4" width="10.125" customWidth="true"/>
+    <col min="5" max="5" width="13.375" customWidth="true"/>
+    <col min="6" max="7" width="12.625" customWidth="true"/>
+    <col min="8" max="8" width="12.5" customWidth="true"/>
+    <col min="9" max="9" width="11.625" customWidth="true"/>
+    <col min="10" max="12" width="12.375" customWidth="true"/>
+    <col min="13" max="14" width="11.875" customWidth="true"/>
+    <col min="15" max="20" width="10.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-    </row>
-    <row r="2" spans="1:20" s="32" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" ht="25.5" customHeight="true" spans="1:20">
+      <c r="A1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" s="28" customFormat="true" ht="21.75" customHeight="true" spans="1:20">
+      <c r="A2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1903,7 +2350,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1965,7 +2412,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2027,7 +2474,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2089,7 +2536,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2151,7 +2598,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2213,7 +2660,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2275,7 +2722,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2337,7 +2784,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2399,7 +2846,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2461,7 +2908,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2523,7 +2970,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2585,7 +3032,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2647,7 +3094,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2713,1097 +3160,2045 @@
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="11.125" customWidth="1"/>
-    <col min="20" max="20" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="true"/>
+    <col min="2" max="2" width="16.875" customWidth="true"/>
+    <col min="3" max="3" width="15.125" customWidth="true"/>
+    <col min="4" max="4" width="16.25" customWidth="true"/>
+    <col min="5" max="5" width="13.875" customWidth="true"/>
+    <col min="6" max="6" width="12.375" customWidth="true"/>
+    <col min="7" max="7" width="14.125" customWidth="true"/>
+    <col min="8" max="8" width="11.625" customWidth="true"/>
+    <col min="9" max="9" width="15.25" customWidth="true"/>
+    <col min="10" max="10" width="11" customWidth="true"/>
+    <col min="11" max="11" width="11.375" customWidth="true"/>
+    <col min="12" max="13" width="13.375" customWidth="true"/>
+    <col min="14" max="14" width="12.75" customWidth="true"/>
+    <col min="15" max="15" width="12.625" customWidth="true"/>
+    <col min="16" max="16" width="12.125" customWidth="true"/>
+    <col min="17" max="17" width="10.25" customWidth="true"/>
+    <col min="18" max="18" width="10.5" customWidth="true"/>
+    <col min="19" max="19" width="11.125" customWidth="true"/>
+    <col min="20" max="20" width="9.875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:20" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" ht="25" customHeight="true" spans="1:20">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" s="23" customFormat="true" ht="18.75" customHeight="true" spans="1:20">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>169</v>
+      </c>
+      <c r="C3">
+        <v>211</v>
+      </c>
+      <c r="D3">
+        <v>225</v>
+      </c>
+      <c r="E3">
+        <v>267</v>
+      </c>
+      <c r="F3">
+        <v>281</v>
+      </c>
+      <c r="G3">
+        <v>323</v>
+      </c>
+      <c r="H3">
+        <v>337</v>
+      </c>
+      <c r="I3">
+        <v>379</v>
+      </c>
+      <c r="J3">
+        <v>393</v>
+      </c>
+      <c r="K3">
+        <v>407</v>
+      </c>
+      <c r="L3">
+        <v>421</v>
+      </c>
+      <c r="M3">
+        <v>435</v>
+      </c>
+      <c r="N3">
+        <v>449</v>
+      </c>
+      <c r="O3">
+        <v>463</v>
+      </c>
+      <c r="P3">
+        <v>477</v>
+      </c>
+      <c r="Q3">
+        <v>491</v>
+      </c>
+      <c r="R3">
+        <v>505</v>
+      </c>
+      <c r="S3">
+        <v>519</v>
+      </c>
+      <c r="T3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D4">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I4">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J4">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M4">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P4">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q4">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="R4">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="S4">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="T4">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E5">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I5">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J5">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K5">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L5">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M5">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N5">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O5">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P5">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q5">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R5">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="S5">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="T5">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D6">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G6">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H6">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I6">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J6">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K6">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L6">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M6">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N6">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O6">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P6">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q6">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="R6">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S6">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T6">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D7">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E7">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F7">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G7">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H7">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I7">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J7">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L7">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M7">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N7">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O7">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P7">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q7">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="R7">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S7">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T7">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J8">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L8">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M8">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N8">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O8">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P8">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q8">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R8">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="S8">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T8">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E9">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H9">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I9">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J9">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K9">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L9">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M9">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N9">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O9">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P9">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q9">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R9">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S9">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T9">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E10">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F10">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G10">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H10">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I10">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J10">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L10">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M10">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N10">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O10">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P10">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q10">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R10">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S10">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T10">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I11">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J11">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K11">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L11">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M11">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N11">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O11">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P11">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q11">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="R11">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T11">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D12">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E12">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F12">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G12">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H12">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I12">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J12">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K12">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L12">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M12">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N12">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O12">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P12">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q12">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="R12">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S12">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T12">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E13">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F13">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H13">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I13">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J13">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K13">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L13">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M13">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N13">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O13">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P13">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q13">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="R13">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S13">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T13">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E14">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G14">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H14">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I14">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J14">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K14">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L14">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M14">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N14">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O14">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P14">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q14">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R14">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="S14">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T14">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D15">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E15">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F15">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G15">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H15">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I15">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J15">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K15">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L15">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M15">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N15">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O15">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P15">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q15">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S15">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T15">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D16">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E16">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F16">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G16">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H16">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I16">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J16">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K16">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L16">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M16">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N16">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O16">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P16">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q16">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="R16">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S16">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T16">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>168</v>
-      </c>
-      <c r="B17">
-        <v>182</v>
-      </c>
-      <c r="C17">
-        <v>224</v>
-      </c>
-      <c r="D17">
-        <v>238</v>
-      </c>
-      <c r="E17">
-        <v>280</v>
-      </c>
-      <c r="F17">
-        <v>294</v>
-      </c>
-      <c r="G17">
-        <v>336</v>
-      </c>
-      <c r="H17">
-        <v>350</v>
-      </c>
-      <c r="I17">
-        <v>392</v>
-      </c>
-      <c r="J17">
-        <v>406</v>
-      </c>
-      <c r="K17">
-        <v>420</v>
-      </c>
-      <c r="L17">
-        <v>434</v>
-      </c>
-      <c r="M17">
-        <v>448</v>
-      </c>
-      <c r="N17">
-        <v>462</v>
-      </c>
-      <c r="O17">
-        <v>476</v>
-      </c>
-      <c r="P17">
-        <v>490</v>
-      </c>
-      <c r="Q17">
-        <v>504</v>
-      </c>
-      <c r="R17">
-        <v>518</v>
-      </c>
-      <c r="S17">
-        <v>532</v>
-      </c>
-      <c r="T17">
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C22" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
-        <v>122</v>
-      </c>
+    <row r="20" spans="1:10">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="10.75" customWidth="true"/>
+    <col min="5" max="5" width="11.25" customWidth="true"/>
+    <col min="6" max="6" width="10.5" customWidth="true"/>
+    <col min="7" max="8" width="11" customWidth="true"/>
+    <col min="9" max="9" width="11.125" customWidth="true"/>
+    <col min="10" max="10" width="10.875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true" spans="1:20">
+      <c r="A1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="22.5" customHeight="true" spans="1:20">
+      <c r="A2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>225</v>
+      </c>
+      <c r="B3">
+        <v>239</v>
+      </c>
+      <c r="C3">
+        <v>281</v>
+      </c>
+      <c r="D3">
+        <v>295</v>
+      </c>
+      <c r="E3">
+        <v>337</v>
+      </c>
+      <c r="F3">
+        <v>351</v>
+      </c>
+      <c r="G3">
+        <v>393</v>
+      </c>
+      <c r="H3">
+        <v>407</v>
+      </c>
+      <c r="I3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>463</v>
+      </c>
+      <c r="K3">
+        <v>505</v>
+      </c>
+      <c r="L3">
+        <v>519</v>
+      </c>
+      <c r="M3">
+        <v>561</v>
+      </c>
+      <c r="N3">
+        <v>575</v>
+      </c>
+      <c r="O3">
+        <v>617</v>
+      </c>
+      <c r="P3">
+        <v>631</v>
+      </c>
+      <c r="Q3">
+        <v>673</v>
+      </c>
+      <c r="R3">
+        <v>687</v>
+      </c>
+      <c r="S3">
+        <v>729</v>
+      </c>
+      <c r="T3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>226</v>
+      </c>
+      <c r="B4">
+        <v>240</v>
+      </c>
+      <c r="C4">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>296</v>
+      </c>
+      <c r="E4">
+        <v>338</v>
+      </c>
+      <c r="F4">
+        <v>352</v>
+      </c>
+      <c r="G4">
+        <v>394</v>
+      </c>
+      <c r="H4">
+        <v>408</v>
+      </c>
+      <c r="I4">
+        <v>450</v>
+      </c>
+      <c r="J4">
+        <v>464</v>
+      </c>
+      <c r="K4">
+        <v>506</v>
+      </c>
+      <c r="L4">
+        <v>520</v>
+      </c>
+      <c r="M4">
+        <v>562</v>
+      </c>
+      <c r="N4">
+        <v>576</v>
+      </c>
+      <c r="O4">
+        <v>618</v>
+      </c>
+      <c r="P4">
+        <v>632</v>
+      </c>
+      <c r="Q4">
+        <v>674</v>
+      </c>
+      <c r="R4">
+        <v>688</v>
+      </c>
+      <c r="S4">
+        <v>730</v>
+      </c>
+      <c r="T4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>227</v>
+      </c>
+      <c r="B5">
+        <v>241</v>
+      </c>
+      <c r="C5">
+        <v>283</v>
+      </c>
+      <c r="D5">
+        <v>297</v>
+      </c>
+      <c r="E5">
+        <v>339</v>
+      </c>
+      <c r="F5">
+        <v>353</v>
+      </c>
+      <c r="G5">
+        <v>395</v>
+      </c>
+      <c r="H5">
+        <v>409</v>
+      </c>
+      <c r="I5">
+        <v>451</v>
+      </c>
+      <c r="J5">
+        <v>465</v>
+      </c>
+      <c r="K5">
+        <v>507</v>
+      </c>
+      <c r="L5">
+        <v>521</v>
+      </c>
+      <c r="M5">
+        <v>563</v>
+      </c>
+      <c r="N5">
+        <v>577</v>
+      </c>
+      <c r="O5">
+        <v>619</v>
+      </c>
+      <c r="P5">
+        <v>633</v>
+      </c>
+      <c r="Q5">
+        <v>675</v>
+      </c>
+      <c r="R5">
+        <v>689</v>
+      </c>
+      <c r="S5">
+        <v>731</v>
+      </c>
+      <c r="T5">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <v>242</v>
+      </c>
+      <c r="C6">
+        <v>284</v>
+      </c>
+      <c r="D6">
+        <v>298</v>
+      </c>
+      <c r="E6">
+        <v>340</v>
+      </c>
+      <c r="F6">
+        <v>354</v>
+      </c>
+      <c r="G6">
+        <v>396</v>
+      </c>
+      <c r="H6">
+        <v>410</v>
+      </c>
+      <c r="I6">
+        <v>452</v>
+      </c>
+      <c r="J6">
+        <v>466</v>
+      </c>
+      <c r="K6">
+        <v>508</v>
+      </c>
+      <c r="L6">
+        <v>522</v>
+      </c>
+      <c r="M6">
+        <v>564</v>
+      </c>
+      <c r="N6">
+        <v>578</v>
+      </c>
+      <c r="O6">
+        <v>620</v>
+      </c>
+      <c r="P6">
+        <v>634</v>
+      </c>
+      <c r="Q6">
+        <v>676</v>
+      </c>
+      <c r="R6">
+        <v>690</v>
+      </c>
+      <c r="S6">
+        <v>732</v>
+      </c>
+      <c r="T6">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <v>243</v>
+      </c>
+      <c r="C7">
+        <v>285</v>
+      </c>
+      <c r="D7">
+        <v>299</v>
+      </c>
+      <c r="E7">
+        <v>341</v>
+      </c>
+      <c r="F7">
+        <v>355</v>
+      </c>
+      <c r="G7">
+        <v>397</v>
+      </c>
+      <c r="H7">
+        <v>411</v>
+      </c>
+      <c r="I7">
+        <v>453</v>
+      </c>
+      <c r="J7">
+        <v>467</v>
+      </c>
+      <c r="K7">
+        <v>509</v>
+      </c>
+      <c r="L7">
+        <v>523</v>
+      </c>
+      <c r="M7">
+        <v>565</v>
+      </c>
+      <c r="N7">
+        <v>579</v>
+      </c>
+      <c r="O7">
+        <v>621</v>
+      </c>
+      <c r="P7">
+        <v>635</v>
+      </c>
+      <c r="Q7">
+        <v>677</v>
+      </c>
+      <c r="R7">
+        <v>691</v>
+      </c>
+      <c r="S7">
+        <v>733</v>
+      </c>
+      <c r="T7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <v>244</v>
+      </c>
+      <c r="C8">
+        <v>286</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>342</v>
+      </c>
+      <c r="F8">
+        <v>356</v>
+      </c>
+      <c r="G8">
+        <v>398</v>
+      </c>
+      <c r="H8">
+        <v>412</v>
+      </c>
+      <c r="I8">
+        <v>454</v>
+      </c>
+      <c r="J8">
+        <v>468</v>
+      </c>
+      <c r="K8">
+        <v>510</v>
+      </c>
+      <c r="L8">
+        <v>524</v>
+      </c>
+      <c r="M8">
+        <v>566</v>
+      </c>
+      <c r="N8">
+        <v>580</v>
+      </c>
+      <c r="O8">
+        <v>622</v>
+      </c>
+      <c r="P8">
+        <v>636</v>
+      </c>
+      <c r="Q8">
+        <v>678</v>
+      </c>
+      <c r="R8">
+        <v>692</v>
+      </c>
+      <c r="S8">
+        <v>734</v>
+      </c>
+      <c r="T8">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>231</v>
+      </c>
+      <c r="B9">
+        <v>245</v>
+      </c>
+      <c r="C9">
+        <v>287</v>
+      </c>
+      <c r="D9">
+        <v>301</v>
+      </c>
+      <c r="E9">
+        <v>343</v>
+      </c>
+      <c r="F9">
+        <v>357</v>
+      </c>
+      <c r="G9">
+        <v>399</v>
+      </c>
+      <c r="H9">
+        <v>413</v>
+      </c>
+      <c r="I9">
+        <v>455</v>
+      </c>
+      <c r="J9">
+        <v>469</v>
+      </c>
+      <c r="K9">
+        <v>511</v>
+      </c>
+      <c r="L9">
+        <v>525</v>
+      </c>
+      <c r="M9">
+        <v>567</v>
+      </c>
+      <c r="N9">
+        <v>581</v>
+      </c>
+      <c r="O9">
+        <v>623</v>
+      </c>
+      <c r="P9">
+        <v>637</v>
+      </c>
+      <c r="Q9">
+        <v>679</v>
+      </c>
+      <c r="R9">
+        <v>693</v>
+      </c>
+      <c r="S9">
+        <v>735</v>
+      </c>
+      <c r="T9">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>246</v>
+      </c>
+      <c r="C10">
+        <v>288</v>
+      </c>
+      <c r="D10">
+        <v>302</v>
+      </c>
+      <c r="E10">
+        <v>344</v>
+      </c>
+      <c r="F10">
+        <v>358</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="H10">
+        <v>414</v>
+      </c>
+      <c r="I10">
+        <v>456</v>
+      </c>
+      <c r="J10">
+        <v>470</v>
+      </c>
+      <c r="K10">
+        <v>512</v>
+      </c>
+      <c r="L10">
+        <v>526</v>
+      </c>
+      <c r="M10">
+        <v>568</v>
+      </c>
+      <c r="N10">
+        <v>582</v>
+      </c>
+      <c r="O10">
+        <v>624</v>
+      </c>
+      <c r="P10">
+        <v>638</v>
+      </c>
+      <c r="Q10">
+        <v>680</v>
+      </c>
+      <c r="R10">
+        <v>694</v>
+      </c>
+      <c r="S10">
+        <v>736</v>
+      </c>
+      <c r="T10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>247</v>
+      </c>
+      <c r="C11">
+        <v>289</v>
+      </c>
+      <c r="D11">
+        <v>303</v>
+      </c>
+      <c r="E11">
+        <v>345</v>
+      </c>
+      <c r="F11">
+        <v>359</v>
+      </c>
+      <c r="G11">
+        <v>401</v>
+      </c>
+      <c r="H11">
+        <v>415</v>
+      </c>
+      <c r="I11">
+        <v>457</v>
+      </c>
+      <c r="J11">
+        <v>471</v>
+      </c>
+      <c r="K11">
+        <v>513</v>
+      </c>
+      <c r="L11">
+        <v>527</v>
+      </c>
+      <c r="M11">
+        <v>569</v>
+      </c>
+      <c r="N11">
+        <v>583</v>
+      </c>
+      <c r="O11">
+        <v>625</v>
+      </c>
+      <c r="P11">
+        <v>639</v>
+      </c>
+      <c r="Q11">
+        <v>681</v>
+      </c>
+      <c r="R11">
+        <v>695</v>
+      </c>
+      <c r="S11">
+        <v>737</v>
+      </c>
+      <c r="T11">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>248</v>
+      </c>
+      <c r="C12">
+        <v>290</v>
+      </c>
+      <c r="D12">
+        <v>304</v>
+      </c>
+      <c r="E12">
+        <v>346</v>
+      </c>
+      <c r="F12">
+        <v>360</v>
+      </c>
+      <c r="G12">
+        <v>402</v>
+      </c>
+      <c r="H12">
+        <v>416</v>
+      </c>
+      <c r="I12">
+        <v>458</v>
+      </c>
+      <c r="J12">
+        <v>472</v>
+      </c>
+      <c r="K12">
+        <v>514</v>
+      </c>
+      <c r="L12">
+        <v>528</v>
+      </c>
+      <c r="M12">
+        <v>570</v>
+      </c>
+      <c r="N12">
+        <v>584</v>
+      </c>
+      <c r="O12">
+        <v>626</v>
+      </c>
+      <c r="P12">
+        <v>640</v>
+      </c>
+      <c r="Q12">
+        <v>682</v>
+      </c>
+      <c r="R12">
+        <v>696</v>
+      </c>
+      <c r="S12">
+        <v>738</v>
+      </c>
+      <c r="T12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>249</v>
+      </c>
+      <c r="C13">
+        <v>291</v>
+      </c>
+      <c r="D13">
+        <v>305</v>
+      </c>
+      <c r="E13">
+        <v>347</v>
+      </c>
+      <c r="F13">
+        <v>361</v>
+      </c>
+      <c r="G13">
+        <v>403</v>
+      </c>
+      <c r="H13">
+        <v>417</v>
+      </c>
+      <c r="I13">
+        <v>459</v>
+      </c>
+      <c r="J13">
+        <v>473</v>
+      </c>
+      <c r="K13">
+        <v>515</v>
+      </c>
+      <c r="L13">
+        <v>529</v>
+      </c>
+      <c r="M13">
+        <v>571</v>
+      </c>
+      <c r="N13">
+        <v>585</v>
+      </c>
+      <c r="O13">
+        <v>627</v>
+      </c>
+      <c r="P13">
+        <v>641</v>
+      </c>
+      <c r="Q13">
+        <v>683</v>
+      </c>
+      <c r="R13">
+        <v>697</v>
+      </c>
+      <c r="S13">
+        <v>739</v>
+      </c>
+      <c r="T13">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>236</v>
+      </c>
+      <c r="B14">
+        <v>250</v>
+      </c>
+      <c r="C14">
+        <v>292</v>
+      </c>
+      <c r="D14">
+        <v>306</v>
+      </c>
+      <c r="E14">
+        <v>348</v>
+      </c>
+      <c r="F14">
+        <v>362</v>
+      </c>
+      <c r="G14">
+        <v>404</v>
+      </c>
+      <c r="H14">
+        <v>418</v>
+      </c>
+      <c r="I14">
+        <v>460</v>
+      </c>
+      <c r="J14">
+        <v>474</v>
+      </c>
+      <c r="K14">
+        <v>516</v>
+      </c>
+      <c r="L14">
+        <v>530</v>
+      </c>
+      <c r="M14">
+        <v>572</v>
+      </c>
+      <c r="N14">
+        <v>586</v>
+      </c>
+      <c r="O14">
+        <v>628</v>
+      </c>
+      <c r="P14">
+        <v>642</v>
+      </c>
+      <c r="Q14">
+        <v>684</v>
+      </c>
+      <c r="R14">
+        <v>698</v>
+      </c>
+      <c r="S14">
+        <v>740</v>
+      </c>
+      <c r="T14">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>237</v>
+      </c>
+      <c r="B15">
+        <v>251</v>
+      </c>
+      <c r="C15">
+        <v>293</v>
+      </c>
+      <c r="D15">
+        <v>307</v>
+      </c>
+      <c r="E15">
+        <v>349</v>
+      </c>
+      <c r="F15">
+        <v>363</v>
+      </c>
+      <c r="G15">
+        <v>405</v>
+      </c>
+      <c r="H15">
+        <v>419</v>
+      </c>
+      <c r="I15">
+        <v>461</v>
+      </c>
+      <c r="J15">
+        <v>475</v>
+      </c>
+      <c r="K15">
+        <v>517</v>
+      </c>
+      <c r="L15">
+        <v>531</v>
+      </c>
+      <c r="M15">
+        <v>573</v>
+      </c>
+      <c r="N15">
+        <v>587</v>
+      </c>
+      <c r="O15">
+        <v>629</v>
+      </c>
+      <c r="P15">
+        <v>643</v>
+      </c>
+      <c r="Q15">
+        <v>685</v>
+      </c>
+      <c r="R15">
+        <v>699</v>
+      </c>
+      <c r="S15">
+        <v>741</v>
+      </c>
+      <c r="T15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>238</v>
+      </c>
+      <c r="B16">
+        <v>252</v>
+      </c>
+      <c r="C16">
+        <v>294</v>
+      </c>
+      <c r="D16">
+        <v>308</v>
+      </c>
+      <c r="E16">
+        <v>350</v>
+      </c>
+      <c r="F16">
+        <v>364</v>
+      </c>
+      <c r="G16">
+        <v>406</v>
+      </c>
+      <c r="H16">
+        <v>420</v>
+      </c>
+      <c r="I16">
+        <v>462</v>
+      </c>
+      <c r="J16">
+        <v>476</v>
+      </c>
+      <c r="K16">
+        <v>518</v>
+      </c>
+      <c r="L16">
+        <v>532</v>
+      </c>
+      <c r="M16">
+        <v>574</v>
+      </c>
+      <c r="N16">
+        <v>588</v>
+      </c>
+      <c r="O16">
+        <v>630</v>
+      </c>
+      <c r="P16">
+        <v>644</v>
+      </c>
+      <c r="Q16">
+        <v>686</v>
+      </c>
+      <c r="R16">
+        <v>700</v>
+      </c>
+      <c r="S16">
+        <v>742</v>
+      </c>
+      <c r="T16">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="true"/>
+    <col min="2" max="3" width="14.125" customWidth="true"/>
+    <col min="4" max="4" width="16.375" customWidth="true"/>
+    <col min="5" max="5" width="14.125" customWidth="true"/>
+    <col min="6" max="7" width="16.375" customWidth="true"/>
+    <col min="8" max="8" width="9.75" customWidth="true"/>
+    <col min="9" max="10" width="16.375" customWidth="true"/>
+    <col min="11" max="11" width="10.75" customWidth="true"/>
+    <col min="12" max="13" width="8.75" customWidth="true"/>
+    <col min="14" max="17" width="10.75" customWidth="true"/>
+    <col min="18" max="18" width="9.25" customWidth="true"/>
+    <col min="19" max="20" width="10.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="24.75" customHeight="true" spans="1:20">
       <c r="A1" s="19" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3825,1018 +5220,9 @@
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>225</v>
-      </c>
-      <c r="B4">
-        <v>239</v>
-      </c>
-      <c r="C4">
-        <v>281</v>
-      </c>
-      <c r="D4">
-        <v>295</v>
-      </c>
-      <c r="E4">
-        <v>337</v>
-      </c>
-      <c r="F4">
-        <v>351</v>
-      </c>
-      <c r="G4">
-        <v>393</v>
-      </c>
-      <c r="H4">
-        <v>407</v>
-      </c>
-      <c r="I4">
-        <v>449</v>
-      </c>
-      <c r="J4">
-        <v>463</v>
-      </c>
-      <c r="K4">
-        <v>505</v>
-      </c>
-      <c r="L4">
-        <v>519</v>
-      </c>
-      <c r="M4">
-        <v>561</v>
-      </c>
-      <c r="N4">
-        <v>575</v>
-      </c>
-      <c r="O4">
-        <v>617</v>
-      </c>
-      <c r="P4">
-        <v>631</v>
-      </c>
-      <c r="Q4">
-        <v>673</v>
-      </c>
-      <c r="R4">
-        <v>687</v>
-      </c>
-      <c r="S4">
-        <v>729</v>
-      </c>
-      <c r="T4">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>226</v>
-      </c>
-      <c r="B5">
-        <v>240</v>
-      </c>
-      <c r="C5">
-        <v>282</v>
-      </c>
-      <c r="D5">
-        <v>296</v>
-      </c>
-      <c r="E5">
-        <v>338</v>
-      </c>
-      <c r="F5">
-        <v>352</v>
-      </c>
-      <c r="G5">
-        <v>394</v>
-      </c>
-      <c r="H5">
-        <v>408</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-      <c r="J5">
-        <v>464</v>
-      </c>
-      <c r="K5">
-        <v>506</v>
-      </c>
-      <c r="L5">
-        <v>520</v>
-      </c>
-      <c r="M5">
-        <v>562</v>
-      </c>
-      <c r="N5">
-        <v>576</v>
-      </c>
-      <c r="O5">
-        <v>618</v>
-      </c>
-      <c r="P5">
-        <v>632</v>
-      </c>
-      <c r="Q5">
-        <v>674</v>
-      </c>
-      <c r="R5">
-        <v>688</v>
-      </c>
-      <c r="S5">
-        <v>730</v>
-      </c>
-      <c r="T5">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>227</v>
-      </c>
-      <c r="B6">
-        <v>241</v>
-      </c>
-      <c r="C6">
-        <v>283</v>
-      </c>
-      <c r="D6">
-        <v>297</v>
-      </c>
-      <c r="E6">
-        <v>339</v>
-      </c>
-      <c r="F6">
-        <v>353</v>
-      </c>
-      <c r="G6">
-        <v>395</v>
-      </c>
-      <c r="H6">
-        <v>409</v>
-      </c>
-      <c r="I6">
-        <v>451</v>
-      </c>
-      <c r="J6">
-        <v>465</v>
-      </c>
-      <c r="K6">
-        <v>507</v>
-      </c>
-      <c r="L6">
-        <v>521</v>
-      </c>
-      <c r="M6">
-        <v>563</v>
-      </c>
-      <c r="N6">
-        <v>577</v>
-      </c>
-      <c r="O6">
-        <v>619</v>
-      </c>
-      <c r="P6">
-        <v>633</v>
-      </c>
-      <c r="Q6">
-        <v>675</v>
-      </c>
-      <c r="R6">
-        <v>689</v>
-      </c>
-      <c r="S6">
-        <v>731</v>
-      </c>
-      <c r="T6">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>228</v>
-      </c>
-      <c r="B7">
-        <v>242</v>
-      </c>
-      <c r="C7">
-        <v>284</v>
-      </c>
-      <c r="D7">
-        <v>298</v>
-      </c>
-      <c r="E7">
-        <v>340</v>
-      </c>
-      <c r="F7">
-        <v>354</v>
-      </c>
-      <c r="G7">
-        <v>396</v>
-      </c>
-      <c r="H7">
-        <v>410</v>
-      </c>
-      <c r="I7">
-        <v>452</v>
-      </c>
-      <c r="J7">
-        <v>466</v>
-      </c>
-      <c r="K7">
-        <v>508</v>
-      </c>
-      <c r="L7">
-        <v>522</v>
-      </c>
-      <c r="M7">
-        <v>564</v>
-      </c>
-      <c r="N7">
-        <v>578</v>
-      </c>
-      <c r="O7">
-        <v>620</v>
-      </c>
-      <c r="P7">
-        <v>634</v>
-      </c>
-      <c r="Q7">
-        <v>676</v>
-      </c>
-      <c r="R7">
-        <v>690</v>
-      </c>
-      <c r="S7">
-        <v>732</v>
-      </c>
-      <c r="T7">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>229</v>
-      </c>
-      <c r="B8">
-        <v>243</v>
-      </c>
-      <c r="C8">
-        <v>285</v>
-      </c>
-      <c r="D8">
-        <v>299</v>
-      </c>
-      <c r="E8">
-        <v>341</v>
-      </c>
-      <c r="F8">
-        <v>355</v>
-      </c>
-      <c r="G8">
-        <v>397</v>
-      </c>
-      <c r="H8">
-        <v>411</v>
-      </c>
-      <c r="I8">
-        <v>453</v>
-      </c>
-      <c r="J8">
-        <v>467</v>
-      </c>
-      <c r="K8">
-        <v>509</v>
-      </c>
-      <c r="L8">
-        <v>523</v>
-      </c>
-      <c r="M8">
-        <v>565</v>
-      </c>
-      <c r="N8">
-        <v>579</v>
-      </c>
-      <c r="O8">
-        <v>621</v>
-      </c>
-      <c r="P8">
-        <v>635</v>
-      </c>
-      <c r="Q8">
-        <v>677</v>
-      </c>
-      <c r="R8">
-        <v>691</v>
-      </c>
-      <c r="S8">
-        <v>733</v>
-      </c>
-      <c r="T8">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>230</v>
-      </c>
-      <c r="B9">
-        <v>244</v>
-      </c>
-      <c r="C9">
-        <v>286</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-      <c r="E9">
-        <v>342</v>
-      </c>
-      <c r="F9">
-        <v>356</v>
-      </c>
-      <c r="G9">
-        <v>398</v>
-      </c>
-      <c r="H9">
-        <v>412</v>
-      </c>
-      <c r="I9">
-        <v>454</v>
-      </c>
-      <c r="J9">
-        <v>468</v>
-      </c>
-      <c r="K9">
-        <v>510</v>
-      </c>
-      <c r="L9">
-        <v>524</v>
-      </c>
-      <c r="M9">
-        <v>566</v>
-      </c>
-      <c r="N9">
-        <v>580</v>
-      </c>
-      <c r="O9">
-        <v>622</v>
-      </c>
-      <c r="P9">
-        <v>636</v>
-      </c>
-      <c r="Q9">
-        <v>678</v>
-      </c>
-      <c r="R9">
-        <v>692</v>
-      </c>
-      <c r="S9">
-        <v>734</v>
-      </c>
-      <c r="T9">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>231</v>
-      </c>
-      <c r="B10">
-        <v>245</v>
-      </c>
-      <c r="C10">
-        <v>287</v>
-      </c>
-      <c r="D10">
-        <v>301</v>
-      </c>
-      <c r="E10">
-        <v>343</v>
-      </c>
-      <c r="F10">
-        <v>357</v>
-      </c>
-      <c r="G10">
-        <v>399</v>
-      </c>
-      <c r="H10">
-        <v>413</v>
-      </c>
-      <c r="I10">
-        <v>455</v>
-      </c>
-      <c r="J10">
-        <v>469</v>
-      </c>
-      <c r="K10">
-        <v>511</v>
-      </c>
-      <c r="L10">
-        <v>525</v>
-      </c>
-      <c r="M10">
-        <v>567</v>
-      </c>
-      <c r="N10">
-        <v>581</v>
-      </c>
-      <c r="O10">
-        <v>623</v>
-      </c>
-      <c r="P10">
-        <v>637</v>
-      </c>
-      <c r="Q10">
-        <v>679</v>
-      </c>
-      <c r="R10">
-        <v>693</v>
-      </c>
-      <c r="S10">
-        <v>735</v>
-      </c>
-      <c r="T10">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>232</v>
-      </c>
-      <c r="B11">
-        <v>246</v>
-      </c>
-      <c r="C11">
-        <v>288</v>
-      </c>
-      <c r="D11">
-        <v>302</v>
-      </c>
-      <c r="E11">
-        <v>344</v>
-      </c>
-      <c r="F11">
-        <v>358</v>
-      </c>
-      <c r="G11">
-        <v>400</v>
-      </c>
-      <c r="H11">
-        <v>414</v>
-      </c>
-      <c r="I11">
-        <v>456</v>
-      </c>
-      <c r="J11">
-        <v>470</v>
-      </c>
-      <c r="K11">
-        <v>512</v>
-      </c>
-      <c r="L11">
-        <v>526</v>
-      </c>
-      <c r="M11">
-        <v>568</v>
-      </c>
-      <c r="N11">
-        <v>582</v>
-      </c>
-      <c r="O11">
-        <v>624</v>
-      </c>
-      <c r="P11">
-        <v>638</v>
-      </c>
-      <c r="Q11">
-        <v>680</v>
-      </c>
-      <c r="R11">
-        <v>694</v>
-      </c>
-      <c r="S11">
-        <v>736</v>
-      </c>
-      <c r="T11">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>233</v>
-      </c>
-      <c r="B12">
-        <v>247</v>
-      </c>
-      <c r="C12">
-        <v>289</v>
-      </c>
-      <c r="D12">
-        <v>303</v>
-      </c>
-      <c r="E12">
-        <v>345</v>
-      </c>
-      <c r="F12">
-        <v>359</v>
-      </c>
-      <c r="G12">
-        <v>401</v>
-      </c>
-      <c r="H12">
-        <v>415</v>
-      </c>
-      <c r="I12">
-        <v>457</v>
-      </c>
-      <c r="J12">
-        <v>471</v>
-      </c>
-      <c r="K12">
-        <v>513</v>
-      </c>
-      <c r="L12">
-        <v>527</v>
-      </c>
-      <c r="M12">
-        <v>569</v>
-      </c>
-      <c r="N12">
-        <v>583</v>
-      </c>
-      <c r="O12">
-        <v>625</v>
-      </c>
-      <c r="P12">
-        <v>639</v>
-      </c>
-      <c r="Q12">
-        <v>681</v>
-      </c>
-      <c r="R12">
-        <v>695</v>
-      </c>
-      <c r="S12">
-        <v>737</v>
-      </c>
-      <c r="T12">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>234</v>
-      </c>
-      <c r="B13">
-        <v>248</v>
-      </c>
-      <c r="C13">
-        <v>290</v>
-      </c>
-      <c r="D13">
-        <v>304</v>
-      </c>
-      <c r="E13">
-        <v>346</v>
-      </c>
-      <c r="F13">
-        <v>360</v>
-      </c>
-      <c r="G13">
-        <v>402</v>
-      </c>
-      <c r="H13">
-        <v>416</v>
-      </c>
-      <c r="I13">
-        <v>458</v>
-      </c>
-      <c r="J13">
-        <v>472</v>
-      </c>
-      <c r="K13">
-        <v>514</v>
-      </c>
-      <c r="L13">
-        <v>528</v>
-      </c>
-      <c r="M13">
-        <v>570</v>
-      </c>
-      <c r="N13">
-        <v>584</v>
-      </c>
-      <c r="O13">
-        <v>626</v>
-      </c>
-      <c r="P13">
-        <v>640</v>
-      </c>
-      <c r="Q13">
-        <v>682</v>
-      </c>
-      <c r="R13">
-        <v>696</v>
-      </c>
-      <c r="S13">
-        <v>738</v>
-      </c>
-      <c r="T13">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>235</v>
-      </c>
-      <c r="B14">
-        <v>249</v>
-      </c>
-      <c r="C14">
-        <v>291</v>
-      </c>
-      <c r="D14">
-        <v>305</v>
-      </c>
-      <c r="E14">
-        <v>347</v>
-      </c>
-      <c r="F14">
-        <v>361</v>
-      </c>
-      <c r="G14">
-        <v>403</v>
-      </c>
-      <c r="H14">
-        <v>417</v>
-      </c>
-      <c r="I14">
-        <v>459</v>
-      </c>
-      <c r="J14">
-        <v>473</v>
-      </c>
-      <c r="K14">
-        <v>515</v>
-      </c>
-      <c r="L14">
-        <v>529</v>
-      </c>
-      <c r="M14">
-        <v>571</v>
-      </c>
-      <c r="N14">
-        <v>585</v>
-      </c>
-      <c r="O14">
-        <v>627</v>
-      </c>
-      <c r="P14">
-        <v>641</v>
-      </c>
-      <c r="Q14">
-        <v>683</v>
-      </c>
-      <c r="R14">
-        <v>697</v>
-      </c>
-      <c r="S14">
-        <v>739</v>
-      </c>
-      <c r="T14">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>236</v>
-      </c>
-      <c r="B15">
-        <v>250</v>
-      </c>
-      <c r="C15">
-        <v>292</v>
-      </c>
-      <c r="D15">
-        <v>306</v>
-      </c>
-      <c r="E15">
-        <v>348</v>
-      </c>
-      <c r="F15">
-        <v>362</v>
-      </c>
-      <c r="G15">
-        <v>404</v>
-      </c>
-      <c r="H15">
-        <v>418</v>
-      </c>
-      <c r="I15">
-        <v>460</v>
-      </c>
-      <c r="J15">
-        <v>474</v>
-      </c>
-      <c r="K15">
-        <v>516</v>
-      </c>
-      <c r="L15">
-        <v>530</v>
-      </c>
-      <c r="M15">
-        <v>572</v>
-      </c>
-      <c r="N15">
-        <v>586</v>
-      </c>
-      <c r="O15">
-        <v>628</v>
-      </c>
-      <c r="P15">
-        <v>642</v>
-      </c>
-      <c r="Q15">
-        <v>684</v>
-      </c>
-      <c r="R15">
-        <v>698</v>
-      </c>
-      <c r="S15">
-        <v>740</v>
-      </c>
-      <c r="T15">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>237</v>
-      </c>
-      <c r="B16">
-        <v>251</v>
-      </c>
-      <c r="C16">
-        <v>293</v>
-      </c>
-      <c r="D16">
-        <v>307</v>
-      </c>
-      <c r="E16">
-        <v>349</v>
-      </c>
-      <c r="F16">
-        <v>363</v>
-      </c>
-      <c r="G16">
-        <v>405</v>
-      </c>
-      <c r="H16">
-        <v>419</v>
-      </c>
-      <c r="I16">
-        <v>461</v>
-      </c>
-      <c r="J16">
-        <v>475</v>
-      </c>
-      <c r="K16">
-        <v>517</v>
-      </c>
-      <c r="L16">
-        <v>531</v>
-      </c>
-      <c r="M16">
-        <v>573</v>
-      </c>
-      <c r="N16">
-        <v>587</v>
-      </c>
-      <c r="O16">
-        <v>629</v>
-      </c>
-      <c r="P16">
-        <v>643</v>
-      </c>
-      <c r="Q16">
-        <v>685</v>
-      </c>
-      <c r="R16">
-        <v>699</v>
-      </c>
-      <c r="S16">
-        <v>741</v>
-      </c>
-      <c r="T16">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>238</v>
-      </c>
-      <c r="B17">
-        <v>252</v>
-      </c>
-      <c r="C17">
-        <v>294</v>
-      </c>
-      <c r="D17">
-        <v>308</v>
-      </c>
-      <c r="E17">
-        <v>350</v>
-      </c>
-      <c r="F17">
-        <v>364</v>
-      </c>
-      <c r="G17">
-        <v>406</v>
-      </c>
-      <c r="H17">
-        <v>420</v>
-      </c>
-      <c r="I17">
-        <v>462</v>
-      </c>
-      <c r="J17">
-        <v>476</v>
-      </c>
-      <c r="K17">
-        <v>518</v>
-      </c>
-      <c r="L17">
-        <v>532</v>
-      </c>
-      <c r="M17">
-        <v>574</v>
-      </c>
-      <c r="N17">
-        <v>588</v>
-      </c>
-      <c r="O17">
-        <v>630</v>
-      </c>
-      <c r="P17">
-        <v>644</v>
-      </c>
-      <c r="Q17">
-        <v>686</v>
-      </c>
-      <c r="R17">
-        <v>700</v>
-      </c>
-      <c r="S17">
-        <v>742</v>
-      </c>
-      <c r="T17">
-        <v>756</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:T2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
-    <col min="19" max="20" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" ht="20.25" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -4848,83 +5234,83 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" ht="14.25" spans="1:20">
+      <c r="A3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>351</v>
       </c>
@@ -4986,7 +5372,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>352</v>
       </c>
@@ -5048,7 +5434,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>353</v>
       </c>
@@ -5110,7 +5496,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>354</v>
       </c>
@@ -5172,7 +5558,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>355</v>
       </c>
@@ -5234,7 +5620,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>356</v>
       </c>
@@ -5296,7 +5682,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>357</v>
       </c>
@@ -5358,7 +5744,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>358</v>
       </c>
@@ -5420,7 +5806,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>359</v>
       </c>
@@ -5482,7 +5868,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>360</v>
       </c>
@@ -5544,7 +5930,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>361</v>
       </c>
@@ -5606,7 +5992,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>362</v>
       </c>
@@ -5668,7 +6054,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>363</v>
       </c>
@@ -5730,7 +6116,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>364</v>
       </c>
@@ -5794,60 +6180,61 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="P2:T2"/>
-    <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="true"/>
+    <col min="2" max="2" width="14.125" customWidth="true"/>
+    <col min="3" max="3" width="13.75" customWidth="true"/>
+    <col min="4" max="4" width="14.375" customWidth="true"/>
+    <col min="5" max="5" width="16.75" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" ht="25.5" spans="1:5">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" ht="24" customHeight="true" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5860,11 +6247,11 @@
       <c r="D3">
         <v>64</v>
       </c>
-      <c r="E3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5877,11 +6264,11 @@
       <c r="D4">
         <v>65</v>
       </c>
-      <c r="E4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5895,7 +6282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5909,7 +6296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5923,7 +6310,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5937,7 +6324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5951,7 +6338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5965,7 +6352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5979,7 +6366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5993,7 +6380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6007,7 +6394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6021,7 +6408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6035,7 +6422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6049,7 +6436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6063,7 +6450,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6077,7 +6464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6091,7 +6478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6105,7 +6492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6119,7 +6506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6133,7 +6520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6151,83 +6538,84 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AS17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
-    <col min="12" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
-    <col min="17" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="8.75" customWidth="1"/>
-    <col min="21" max="22" width="10.75" customWidth="1"/>
-    <col min="23" max="24" width="8.75" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="16.375" customWidth="1"/>
-    <col min="27" max="28" width="14.125" customWidth="1"/>
-    <col min="29" max="29" width="16.375" customWidth="1"/>
-    <col min="30" max="34" width="14.125" customWidth="1"/>
-    <col min="35" max="35" width="16.375" customWidth="1"/>
-    <col min="36" max="36" width="10.75" customWidth="1"/>
-    <col min="37" max="38" width="8.75" customWidth="1"/>
-    <col min="39" max="41" width="10.75" customWidth="1"/>
-    <col min="45" max="45" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="true"/>
+    <col min="2" max="2" width="10.75" customWidth="true"/>
+    <col min="3" max="3" width="8.75" customWidth="true"/>
+    <col min="4" max="4" width="10.75" customWidth="true"/>
+    <col min="5" max="5" width="10.875" customWidth="true"/>
+    <col min="6" max="7" width="10.75" customWidth="true"/>
+    <col min="8" max="8" width="6.75" customWidth="true"/>
+    <col min="9" max="9" width="10.75" customWidth="true"/>
+    <col min="10" max="10" width="11.125" customWidth="true"/>
+    <col min="11" max="11" width="8.75" customWidth="true"/>
+    <col min="12" max="15" width="10.75" customWidth="true"/>
+    <col min="16" max="16" width="8.75" customWidth="true"/>
+    <col min="17" max="19" width="10.75" customWidth="true"/>
+    <col min="20" max="20" width="8.75" customWidth="true"/>
+    <col min="21" max="22" width="10.75" customWidth="true"/>
+    <col min="23" max="24" width="8.75" customWidth="true"/>
+    <col min="25" max="25" width="10.75" customWidth="true"/>
+    <col min="26" max="26" width="16.375" customWidth="true"/>
+    <col min="27" max="28" width="14.125" customWidth="true"/>
+    <col min="29" max="29" width="16.375" customWidth="true"/>
+    <col min="30" max="34" width="14.125" customWidth="true"/>
+    <col min="35" max="35" width="16.375" customWidth="true"/>
+    <col min="36" max="36" width="10.75" customWidth="true"/>
+    <col min="37" max="38" width="8.75" customWidth="true"/>
+    <col min="39" max="41" width="10.75" customWidth="true"/>
+    <col min="45" max="45" width="11.125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="16" t="s">
+    <row r="1" s="1" customFormat="true" ht="20.25" spans="1:45">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
       <c r="Z1" s="15" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
@@ -6249,34 +6637,34 @@
       <c r="AR1" s="15"/>
       <c r="AS1" s="15"/>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
+    <row r="2" s="1" customFormat="true" ht="20.25" spans="1:45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
       <c r="Z2" s="15" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
@@ -6288,158 +6676,158 @@
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="AK2" s="15"/>
       <c r="AL2" s="15"/>
       <c r="AM2" s="15"/>
       <c r="AN2" s="15"/>
       <c r="AO2" s="15" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="AP2" s="15"/>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" s="2" customFormat="true" ht="27" customHeight="true" spans="1:45">
+      <c r="A3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6476,8 +6864,8 @@
       <c r="L4">
         <v>155</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>50</v>
+      <c r="M4" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="N4">
         <v>183</v>
@@ -6576,7 +6964,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6613,8 +7001,8 @@
       <c r="L5">
         <v>156</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>49</v>
+      <c r="M5" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="N5">
         <v>184</v>
@@ -6713,7 +7101,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6847,7 +7235,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6981,7 +7369,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7115,7 +7503,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7249,7 +7637,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7383,7 +7771,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7517,7 +7905,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7651,7 +8039,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7785,7 +8173,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7919,7 +8307,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8053,7 +8441,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>13</v>
       </c>
@@ -8187,7 +8575,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45">
       <c r="A17">
         <v>14</v>
       </c>
@@ -8323,16 +8711,16 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="K1:O2"/>
-    <mergeCell ref="A1:J2"/>
     <mergeCell ref="Z1:AS1"/>
     <mergeCell ref="Z2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="P1:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>